--- a/plan/project-management-plan.xlsx
+++ b/plan/project-management-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.Basbudak\Desktop\Shell Learning Program\Udacity_Data_Engineer\07.CI-CD\CI-CD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8DDCC6-519A-44FA-BC8A-C95E8B4665CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCC885B-729D-4764-94E4-C43F77FB5703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Week</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Makefiles for Build Automation</t>
-  </si>
-  <si>
-    <t>Creat abd Use Virtual Environments</t>
   </si>
   <si>
     <t>Using pip with Make</t>
@@ -101,6 +98,33 @@
   </si>
   <si>
     <t>Create Effective Alert</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Creat and Use Virtual Environments</t>
+  </si>
+  <si>
+    <t>Quarter Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Plan </t>
+  </si>
+  <si>
+    <t>Improvement in the CI Pipeline</t>
+  </si>
+  <si>
+    <t>Improvement in the CD Pipeline</t>
   </si>
 </sst>
 </file>
@@ -198,11 +222,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +448,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -445,7 +469,9 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -470,19 +496,21 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5">
         <v>43831</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -507,17 +535,19 @@
       <c r="AA2" s="7"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="5">
         <v>43838</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -542,17 +572,19 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>43845</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>19</v>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -577,17 +609,19 @@
       <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5">
         <v>43852</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -612,17 +646,19 @@
       <c r="AA5" s="7"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5">
         <v>43859</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>21</v>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -647,17 +683,19 @@
       <c r="AA6" s="7"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5">
         <v>43866</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>22</v>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -682,17 +720,19 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5">
         <v>43873</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>23</v>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -717,17 +757,19 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5">
         <v>43880</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>24</v>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -752,17 +794,19 @@
       <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5">
         <v>43887</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>16</v>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>25</v>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -787,17 +831,19 @@
       <c r="AA10" s="7"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5">
         <v>43895</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -822,17 +868,19 @@
       <c r="AA11" s="7"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="5">
         <v>43902</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>18</v>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
+      <c r="D12" s="13" t="s">
+        <v>17</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -857,17 +905,19 @@
       <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="5">
         <v>43909</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -925,6 +975,9 @@
       <c r="AA14" s="10"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -984,10 +1037,17 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1012,7 +1072,7 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1040,7 +1100,7 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1068,7 +1128,7 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1096,7 +1156,7 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1124,7 +1184,7 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1152,7 +1212,7 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1180,7 +1240,7 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1208,7 +1268,7 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1236,7 +1296,7 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1264,7 +1324,7 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1292,7 +1352,7 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1320,7 +1380,7 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1348,7 +1408,7 @@
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1376,7 +1436,7 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1404,7 +1464,7 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
